--- a/va_facility_data_2025-02-20/New Bedford VA Clinic - Facility Data.xlsx"; filename*=UTF-8''New%20Bedford%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/New Bedford VA Clinic - Facility Data.xlsx"; filename*=UTF-8''New%20Bedford%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rb9dd20d69b7c4a7b944adca8fd3f6d0e"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rbf4ac016d6854fb28de81468b7df8bb3"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R03917dd4dc42417ca8e2f21f5634b18f"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rbe6299035d5047b0b399f7bc13e0bcd7"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R4124ff3f55dd42e29894c7e2ca62efb2"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R6499d664629a4f05b42f8e7517d4b44e"/>
   </x:sheets>
 </x:workbook>
 </file>
